--- a/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>NVDA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43856</v>
+      </c>
+      <c r="E7" s="2">
         <v>43492</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43128</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42764</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42400</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42029</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41665</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41301</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40937</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10918000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11716000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9714000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6910000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5010000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4681500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4130200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4280200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3997900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4150000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4545000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3892000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2847000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2199000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2082000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1862400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2053800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1941400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6768000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7171000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5822000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4063000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2811000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2599500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2267800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2226300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2056500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2829000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2376000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1797000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1463000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1331000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1359700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1335800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1147300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1002600</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,39 +888,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>131000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8072000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7912000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6504000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4976000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4263000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3922500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3633900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3631900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3349600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2846000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3804000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3210000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1934000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>747000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>759000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>496200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>648200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>648300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E20" s="3">
         <v>150000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>47000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>43000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>42000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>24500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>17100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3403000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4216000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3456000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2150000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>987000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1021100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>759800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>891600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>870700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E22" s="3">
         <v>58000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>61000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>47000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>46100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2970000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3896000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3196000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1905000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>743000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>754800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>510300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>662000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>663400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E24" s="3">
         <v>123000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>282000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>239000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>129000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>124200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>70300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>99500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82300</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3773000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2914000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1666000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>614000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>630600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>440000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>562500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>581100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3773000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2914000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1666000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>614000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>630600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>440000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>562500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>581100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,20 +1344,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>368000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>133000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-176000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-150000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-47000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-43000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-42000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-24500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-17100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4141000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3047000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1666000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>614000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>630600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>440000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>562500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>581100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4141000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3047000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1666000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>614000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>630600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>440000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>562500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>581100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43856</v>
+      </c>
+      <c r="E38" s="2">
         <v>43492</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43128</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42764</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42400</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42029</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41665</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41301</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40937</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10896000</v>
+      </c>
+      <c r="E41" s="3">
         <v>782000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4002000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1766000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>596000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>497000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1151600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>732800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>667900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6640000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3106000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5032000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4441000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4126000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3520200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2995100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2461700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1657000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1424000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1265000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>826000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>505000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>947600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>426400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>908500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>336100</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1575000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>796000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>794000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>418000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>483000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>387800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>412500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>340300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E45" s="3">
         <v>136000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>86000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>118000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>133000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>138800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>257600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>99300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13690000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10557000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9255000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8536000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6053000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5713000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5624700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4775300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3905400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>10000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2292000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1404000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>997000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>521000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>466000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1114300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>582700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1152300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>560100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E49" s="3">
         <v>663000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>670000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>722000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>784000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>840000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>939200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>953400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>967200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E52" s="3">
         <v>668000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>319000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>67000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>91000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>104300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>204900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>110000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17315000</v>
+      </c>
+      <c r="E54" s="3">
         <v>13292000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11241000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9841000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7370000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7201000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7250900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6412200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5552900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,55 +2138,59 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E57" s="3">
         <v>511000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>596000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>485000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>296000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>293000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>324400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>356400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>335100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>796000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1413000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
@@ -2068,129 +2201,144 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1097000</v>
+      </c>
+      <c r="E59" s="3">
         <v>818000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>542000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>507000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>642000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>603000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>630400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>619800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>594900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1329000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1153000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1788000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2351000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>896000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>945500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>976200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>930000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1988000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1985000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2020000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>97000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1398000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1373900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1336000</v>
+      </c>
+      <c r="E62" s="3">
         <v>633000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>632000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>271000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>453000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>489000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>475100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>589300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>455800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3950000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3770000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4079000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2901000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2783000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2794500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1584500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1407200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14971000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12565000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8787000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6108000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4350000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3949000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3504700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3246100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2730400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12204000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9342000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7471000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5762000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4469000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4418000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4456400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4827700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4145700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43856</v>
+      </c>
+      <c r="E80" s="2">
         <v>43492</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43128</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42764</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42400</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42029</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41665</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41301</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40937</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4141000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3047000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1666000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>614000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>630600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>440000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>562500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>581100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E83" s="3">
         <v>262000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>199000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>187000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>197000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>220100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>239100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>226200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>204200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4761000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3743000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3502000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1672000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1175000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>905700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>835100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>824200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>909200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-489000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-593000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-176000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-86000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-122400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-255200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-183300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-138700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6145000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4097000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1278000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-793000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-727000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-805900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-744000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1143400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-390000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-371000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-341000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-261000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-213000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-186500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-181300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-46900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,39 +3421,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-792000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2866000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2544000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>291000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-676000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-833500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>389600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>236700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3239,37 +3487,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10114000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3220000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2236000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1170000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>99000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-654900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>418800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>64900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>NVDA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>43856</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43492</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43128</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42764</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42029</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41665</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41301</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40937</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16675000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10918000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11716000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9714000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6910000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5010000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4681500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4130200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4280200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3997900</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6279000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4150000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4545000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3892000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2847000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2199000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2082000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1862400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2053800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1941400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10396000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6768000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7171000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5822000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4063000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2811000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2599500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2267800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2226300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2056500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>3924000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2829000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2376000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1797000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1463000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1331000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1359700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1335800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1147300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1002600</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,42 +908,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>131000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +980,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12143000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8072000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7912000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6504000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4976000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4263000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3922500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3633900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3631900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3349600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4532000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2846000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3804000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3210000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1934000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>747000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>759000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>496200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>648200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>648300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E20" s="3">
         <v>176000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>150000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>47000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>43000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>42000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>24500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5691000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3403000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4216000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3456000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2150000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>987000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1021100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>759800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>891600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>870700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E22" s="3">
         <v>52000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>61000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>46100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4409000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2970000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3896000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3196000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1905000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>743000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>754800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>510300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>662000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>663400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E24" s="3">
         <v>174000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>123000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>282000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>239000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>129000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>124200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>70300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>82300</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4332000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2796000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3773000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2914000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1666000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>614000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>630600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>440000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>562500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>581100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4332000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2796000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3773000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2914000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1666000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>614000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>630600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>440000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>562500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>581100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,23 +1405,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>368000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>133000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1380,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-176000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-150000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-47000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-43000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-42000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-24500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4332000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2796000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4141000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3047000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1666000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>614000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>630600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>440000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>562500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>581100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4332000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2796000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4141000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3047000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1666000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>614000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>630600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>440000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>562500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>581100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>43856</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43492</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43128</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42764</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42029</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41665</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41301</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40937</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,206 +1733,225 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10896000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>782000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4002000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1766000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>596000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>497000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1151600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>732800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>667900</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10714000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6640000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3106000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5032000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4441000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4126000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3520200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2995100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2461700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2429000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1657000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1424000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1265000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>826000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>505000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>947600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>426400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>908500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>336100</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="E44" s="3">
         <v>979000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1575000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>796000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>794000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>418000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>483000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>387800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>412500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>340300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E45" s="3">
         <v>157000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>136000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>86000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>118000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>93000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>133000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>138800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>257600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>99300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16055000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13690000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10557000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9255000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8536000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6053000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5713000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5624700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4775300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3905400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1872,80 +1977,89 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>10000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2856000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2292000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1404000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>997000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>521000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>466000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1114300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>582700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1152300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>560100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6930000</v>
+      </c>
+      <c r="E49" s="3">
         <v>667000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>663000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>670000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>722000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>784000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>840000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>939200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>953400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>967200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2950000</v>
+      </c>
+      <c r="E52" s="3">
         <v>666000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>668000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>319000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>67000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>91000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>104300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>204900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>110000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28791000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17315000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13292000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11241000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9841000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7370000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7201000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7250900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6412200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5552900</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,61 +2269,65 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1201000</v>
+      </c>
+      <c r="E57" s="3">
         <v>687000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>511000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>596000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>485000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>296000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>293000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>324400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>356400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>335100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>796000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1413000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
@@ -2204,141 +2338,156 @@
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1097000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>818000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>542000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>507000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>642000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>603000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>630400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>619800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>594900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3925000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1784000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1329000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1153000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1788000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2351000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>896000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>945500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>976200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>930000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5964000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1991000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1988000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1985000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2020000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>97000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1398000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1373900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>21400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2009000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1336000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>633000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>632000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>271000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>453000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>489000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>475100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>589300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>455800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11898000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5111000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3950000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3770000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4079000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2901000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2783000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2794500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1584500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1407200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18908000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14971000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12565000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8787000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6108000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4350000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3949000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3504700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3246100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2730400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16893000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12204000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9342000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7471000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5762000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4469000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4418000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4456400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4827700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4145700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>43856</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43492</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43128</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42764</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42029</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41665</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41301</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40937</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4332000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2796000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4141000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3047000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1666000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>614000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>630600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>440000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>562500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>581100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="E83" s="3">
         <v>381000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>262000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>199000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>187000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>197000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>220100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>239100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>226200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>204200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5822000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4761000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3743000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3502000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1672000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1175000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>905700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>835100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>824200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>909200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1128000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-489000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-593000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-176000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-86000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-122400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-255200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-183300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-138700</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19675000</v>
+      </c>
+      <c r="E94" s="3">
         <v>6145000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4097000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1278000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-793000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-727000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-805900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-744000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1143400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-395000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-390000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-371000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-341000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-261000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-213000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-186500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-181300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,42 +3667,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3804000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-792000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2866000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2544000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>291000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-676000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-833500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>389600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>236700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3490,40 +3739,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10049000</v>
+      </c>
+      <c r="E102" s="3">
         <v>10114000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3220000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2236000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1170000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>99000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-654900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>418800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>NVDA</t>
   </si>
@@ -666,8 +666,8 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1144,8 +1144,8 @@
       <c r="I21" s="3">
         <v>987000</v>
       </c>
-      <c r="J21" s="3">
-        <v>1021100</v>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="3">
         <v>759800</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21208000</v>
+      </c>
+      <c r="E41" s="3">
         <v>847000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10896000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>782000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4002000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1766000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>596000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>497000</v>
       </c>
       <c r="K41" s="3">
         <v>1151600</v>
@@ -1775,26 +1775,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
         <v>10714000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6640000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3106000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5032000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4441000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>4126000</v>
       </c>
       <c r="K42" s="3">
         <v>3520200</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4650000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2429000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1657000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1424000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1265000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>826000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>505000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>947600</v>
       </c>
       <c r="K43" s="3">
         <v>426400</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2605000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1826000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>979000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1575000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>796000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>794000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>418000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>483000</v>
       </c>
       <c r="K44" s="3">
         <v>387800</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E45" s="3">
         <v>239000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>157000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>136000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>86000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>93000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>133000</v>
       </c>
       <c r="K45" s="3">
         <v>138800</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28829000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16055000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13690000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10557000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9255000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8536000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6053000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>5713000</v>
       </c>
       <c r="K46" s="3">
         <v>5624700</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3607000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2856000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2292000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1404000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>997000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>521000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>466000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1114300</v>
       </c>
       <c r="K48" s="3">
         <v>582700</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6688000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6930000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>667000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>663000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>670000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>722000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>784000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>840000</v>
       </c>
       <c r="K49" s="3">
         <v>939200</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5063000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2950000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>666000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>668000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>319000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>67000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>91000</v>
       </c>
       <c r="K52" s="3">
         <v>104300</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44187000</v>
+      </c>
+      <c r="E54" s="3">
         <v>28791000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17315000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13292000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11241000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9841000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7370000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>7201000</v>
       </c>
       <c r="K54" s="3">
         <v>7250900</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1783000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1201000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>687000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>511000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>596000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>485000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>296000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>293000</v>
       </c>
       <c r="K57" s="3">
         <v>324400</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>999000</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>796000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1413000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2552000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1725000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1097000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>818000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>542000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>507000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>642000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>603000</v>
       </c>
       <c r="K59" s="3">
         <v>630400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4335000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3925000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1784000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1329000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1153000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1788000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2351000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>896000</v>
       </c>
       <c r="K60" s="3">
         <v>945500</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10946000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5964000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1991000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1988000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1985000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2020000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>97000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1398000</v>
       </c>
       <c r="K61" s="3">
         <v>1373900</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2294000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2009000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1336000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>633000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>632000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>271000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>453000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>489000</v>
       </c>
       <c r="K62" s="3">
         <v>475100</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17575000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11898000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5111000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3950000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3770000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4079000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2901000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2783000</v>
       </c>
       <c r="K66" s="3">
         <v>2794500</v>
@@ -2795,26 +2795,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3">
         <v>18908000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14971000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12565000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8787000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6108000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4350000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3949000</v>
       </c>
       <c r="K72" s="3">
         <v>3504700</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26612000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16893000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12204000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9342000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7471000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5762000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4469000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4418000</v>
       </c>
       <c r="K76" s="3">
         <v>4456400</v>
@@ -3122,8 +3122,8 @@
       <c r="I83" s="3">
         <v>197000</v>
       </c>
-      <c r="J83" s="3">
-        <v>220100</v>
+      <c r="J83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K83" s="3">
         <v>239100</v>
@@ -3498,8 +3498,8 @@
       <c r="I94" s="3">
         <v>-400000</v>
       </c>
-      <c r="J94" s="3">
-        <v>-727000</v>
+      <c r="J94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K94" s="3">
         <v>-805900</v>
@@ -3694,8 +3694,8 @@
       <c r="I100" s="3">
         <v>-676000</v>
       </c>
-      <c r="J100" s="3">
-        <v>-833500</v>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>389600</v>
@@ -3730,8 +3730,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>NVDA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43856</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43492</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43128</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42764</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42029</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41665</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41301</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40937</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26914000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16675000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10918000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11716000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9714000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6910000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5010000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4681500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4130200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4280200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3997900</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9439000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6279000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4150000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4545000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3892000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2847000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2199000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2082000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1862400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2053800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1941400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17475000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10396000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6768000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7171000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5822000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4063000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2811000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2599500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2267800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2226300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2056500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +853,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5268000</v>
+      </c>
+      <c r="E12" s="3">
         <v>3924000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2829000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2376000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1797000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1463000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1331000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1359700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1335800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1147300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1002600</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,9 +928,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -923,33 +943,36 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>131000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,9 +1006,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16873000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12143000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8072000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7912000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6504000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4976000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4263000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3922500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3633900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3631900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3349600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10041000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4532000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2846000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3804000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3210000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1934000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>747000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>759000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>496200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>648200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>648300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1118,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E20" s="3">
         <v>61000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>176000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>150000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>47000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>43000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>42000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11351000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5691000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3403000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4216000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3456000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2150000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>987000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>759800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>891600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>870700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E22" s="3">
         <v>184000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>61000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>47000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>46100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9941000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4409000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2970000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3896000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3196000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1905000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>743000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>754800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>510300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>662000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>663400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E24" s="3">
         <v>77000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>174000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>123000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>282000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>239000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>129000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>124200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>70300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82300</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9752000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4332000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2796000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3773000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2914000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1666000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>614000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>630600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>440000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>562500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>581100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9752000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4332000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2796000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3773000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2914000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1666000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>614000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>630600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>440000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>562500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>581100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,26 +1466,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>368000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>133000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1444,9 +1505,12 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-61000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-176000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-150000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-47000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-43000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-42000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9752000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4332000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2796000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4141000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3047000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1666000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>614000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>630600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>440000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>562500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>581100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9752000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4332000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2796000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4141000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3047000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1666000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>614000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>630600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>440000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>562500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>581100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43856</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43492</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43128</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42764</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42029</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41665</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41301</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40937</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,13 +1820,14 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21208000</v>
+        <v>1990000</v>
       </c>
       <c r="E41" s="3">
         <v>847000</v>
@@ -1761,22 +1848,25 @@
         <v>596000</v>
       </c>
       <c r="K41" s="3">
+        <v>596000</v>
+      </c>
+      <c r="L41" s="3">
         <v>1151600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>732800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>667900</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>10</v>
+      <c r="D42" s="3">
+        <v>19218000</v>
       </c>
       <c r="E42" s="3">
         <v>10714000</v>
@@ -1797,17 +1887,20 @@
         <v>4441000</v>
       </c>
       <c r="K42" s="3">
+        <v>4441000</v>
+      </c>
+      <c r="L42" s="3">
         <v>3520200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2995100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2461700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1833,17 +1926,20 @@
         <v>505000</v>
       </c>
       <c r="K43" s="3">
+        <v>505000</v>
+      </c>
+      <c r="L43" s="3">
         <v>426400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>908500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>336100</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1869,17 +1965,20 @@
         <v>418000</v>
       </c>
       <c r="K44" s="3">
+        <v>418000</v>
+      </c>
+      <c r="L44" s="3">
         <v>387800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>412500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>340300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1905,17 +2004,20 @@
         <v>93000</v>
       </c>
       <c r="K45" s="3">
+        <v>93000</v>
+      </c>
+      <c r="L45" s="3">
         <v>138800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>257600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>99300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1941,53 +2043,59 @@
         <v>6053000</v>
       </c>
       <c r="K46" s="3">
+        <v>6053000</v>
+      </c>
+      <c r="L46" s="3">
         <v>5624700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4775300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3905400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>266000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>10000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2013,17 +2121,20 @@
         <v>466000</v>
       </c>
       <c r="K48" s="3">
+        <v>466000</v>
+      </c>
+      <c r="L48" s="3">
         <v>582700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1152300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>560100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2049,17 +2160,20 @@
         <v>784000</v>
       </c>
       <c r="K49" s="3">
+        <v>784000</v>
+      </c>
+      <c r="L49" s="3">
         <v>939200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>953400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>967200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,14 +2246,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5063000</v>
+        <v>4797000</v>
       </c>
       <c r="E52" s="3">
         <v>2950000</v>
@@ -2157,17 +2277,20 @@
         <v>67000</v>
       </c>
       <c r="K52" s="3">
+        <v>67000</v>
+      </c>
+      <c r="L52" s="3">
         <v>104300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>204900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>110000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,9 +2324,12 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2229,17 +2355,20 @@
         <v>7370000</v>
       </c>
       <c r="K54" s="3">
+        <v>7370000</v>
+      </c>
+      <c r="L54" s="3">
         <v>7250900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6412200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5552900</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,8 +2400,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2297,17 +2428,20 @@
         <v>296000</v>
       </c>
       <c r="K57" s="3">
+        <v>296000</v>
+      </c>
+      <c r="L57" s="3">
         <v>324400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>356400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>335100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2332,8 +2466,8 @@
       <c r="J58" s="3">
         <v>1413000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
+      <c r="K58" s="3">
+        <v>1413000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
@@ -2341,9 +2475,12 @@
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2369,17 +2506,20 @@
         <v>642000</v>
       </c>
       <c r="K59" s="3">
+        <v>642000</v>
+      </c>
+      <c r="L59" s="3">
         <v>630400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>619800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>594900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2405,17 +2545,20 @@
         <v>2351000</v>
       </c>
       <c r="K60" s="3">
+        <v>2351000</v>
+      </c>
+      <c r="L60" s="3">
         <v>945500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>976200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>930000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2441,17 +2584,20 @@
         <v>97000</v>
       </c>
       <c r="K61" s="3">
+        <v>97000</v>
+      </c>
+      <c r="L61" s="3">
         <v>1373900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2477,17 +2623,20 @@
         <v>453000</v>
       </c>
       <c r="K62" s="3">
+        <v>453000</v>
+      </c>
+      <c r="L62" s="3">
         <v>475100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>589300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>455800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,9 +2748,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2621,17 +2779,20 @@
         <v>2901000</v>
       </c>
       <c r="K66" s="3">
+        <v>2901000</v>
+      </c>
+      <c r="L66" s="3">
         <v>2794500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1584500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1407200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,14 +2960,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>10</v>
+      <c r="D72" s="3">
+        <v>16235000</v>
       </c>
       <c r="E72" s="3">
         <v>18908000</v>
@@ -2817,17 +2991,20 @@
         <v>4350000</v>
       </c>
       <c r="K72" s="3">
+        <v>4350000</v>
+      </c>
+      <c r="L72" s="3">
         <v>3504700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3246100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2730400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,9 +3116,12 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2961,17 +3147,20 @@
         <v>4469000</v>
       </c>
       <c r="K76" s="3">
+        <v>4469000</v>
+      </c>
+      <c r="L76" s="3">
         <v>4456400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4827700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4145700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43856</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43492</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43128</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42764</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42029</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41665</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41301</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40937</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9752000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4332000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2796000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4141000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3047000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1666000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>614000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>630600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>440000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>562500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>581100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1098000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>381000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>262000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>199000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>187000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>197000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>239100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>226200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>204200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9108000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5822000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4761000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3743000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3502000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1672000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1175000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>905700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>835100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>824200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>909200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-976000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1128000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-489000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-593000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-176000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-86000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-122400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-255200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-183300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-138700</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9830000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19675000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6145000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4097000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1278000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-793000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-805900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-744000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1143400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3760,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-399000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-395000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-390000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-371000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-341000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-261000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-213000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-186500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-181300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,45 +3913,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1865000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3804000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-792000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2866000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2544000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>291000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-676000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>389600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>236700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3730,55 +3979,61 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1143000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10049000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10114000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3220000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2236000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1170000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>99000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-654900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>418800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>NVDA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E7" s="2">
         <v>44591</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43856</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43492</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43128</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42764</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42029</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41665</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41301</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40937</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>26974000</v>
+      </c>
+      <c r="E8" s="3">
         <v>26914000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16675000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10918000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11716000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9714000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6910000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5010000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4681500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4130200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4280200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3997900</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11618000</v>
+      </c>
+      <c r="E9" s="3">
         <v>9439000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6279000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4150000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4545000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3892000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2847000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2199000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2082000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1862400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2053800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1941400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15356000</v>
+      </c>
+      <c r="E10" s="3">
         <v>17475000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10396000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6768000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7171000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5822000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4063000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2811000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2599500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2267800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2226300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2056500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,47 +867,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7339000</v>
+      </c>
+      <c r="E12" s="3">
         <v>5268000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3924000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2829000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2376000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1797000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1463000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1331000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1359700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1335800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1147300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1002600</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,14 +948,17 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>1353000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -946,33 +966,36 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>131000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1009,9 +1032,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22750000</v>
+      </c>
+      <c r="E17" s="3">
         <v>16873000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12143000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8072000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7912000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6504000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4976000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4263000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3922500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3633900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3631900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3349600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4224000</v>
+      </c>
+      <c r="E18" s="3">
         <v>10041000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4532000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2846000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3804000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3210000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1934000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>747000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>759000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>496200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>648200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>648300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,203 +1152,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E20" s="3">
         <v>136000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>61000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>176000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>150000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>47000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>43000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>42000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5987000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11351000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5691000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3403000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4216000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3456000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2150000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>987000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>759800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>891600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>870700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E22" s="3">
         <v>236000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>184000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>61000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>47000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>46100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4181000</v>
+      </c>
+      <c r="E23" s="3">
         <v>9941000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4409000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2970000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3896000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3196000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1905000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>743000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>754800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>510300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>662000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>663400</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-187000</v>
+      </c>
+      <c r="E24" s="3">
         <v>189000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>77000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>174000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>123000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>282000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>239000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>129000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>124200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>70300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>82300</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4368000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9752000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4332000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2796000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3773000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2914000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1666000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>614000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>630600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>440000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>562500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>581100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4368000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9752000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4332000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2796000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3773000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2914000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1666000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>614000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>630600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>440000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>562500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>581100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,9 +1527,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,17 +1542,17 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>368000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>133000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1508,9 +1569,12 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,87 +1653,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-219000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-136000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-61000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-176000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-150000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-47000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-43000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-42000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4368000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9752000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4332000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2796000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4141000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3047000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1666000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>614000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>630600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>440000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>562500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>581100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4368000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9752000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4332000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2796000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4141000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3047000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1666000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>614000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>630600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>440000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>562500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>581100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E38" s="2">
         <v>44591</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43856</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43492</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43128</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42764</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42029</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41665</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41301</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40937</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,250 +1907,269 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3389000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1990000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>847000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10896000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>782000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4002000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1766000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>596000</v>
       </c>
       <c r="K41" s="3">
         <v>596000</v>
       </c>
       <c r="L41" s="3">
+        <v>596000</v>
+      </c>
+      <c r="M41" s="3">
         <v>1151600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>732800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>667900</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9907000</v>
+      </c>
+      <c r="E42" s="3">
         <v>19218000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10714000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>6640000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3106000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5032000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>4441000</v>
       </c>
       <c r="K42" s="3">
         <v>4441000</v>
       </c>
       <c r="L42" s="3">
+        <v>4441000</v>
+      </c>
+      <c r="M42" s="3">
         <v>3520200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2995100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2461700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3827000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4650000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2429000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1657000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1424000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1265000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>826000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>505000</v>
       </c>
       <c r="K43" s="3">
         <v>505000</v>
       </c>
       <c r="L43" s="3">
+        <v>505000</v>
+      </c>
+      <c r="M43" s="3">
         <v>426400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>908500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>336100</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5159000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2605000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1826000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>979000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1575000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>796000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>794000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>418000</v>
       </c>
       <c r="K44" s="3">
         <v>418000</v>
       </c>
       <c r="L44" s="3">
+        <v>418000</v>
+      </c>
+      <c r="M44" s="3">
         <v>387800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>412500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>340300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>791000</v>
+      </c>
+      <c r="E45" s="3">
         <v>366000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>239000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>157000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>136000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>86000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>93000</v>
       </c>
       <c r="K45" s="3">
         <v>93000</v>
       </c>
       <c r="L45" s="3">
+        <v>93000</v>
+      </c>
+      <c r="M45" s="3">
         <v>138800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>257600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>99300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23073000</v>
+      </c>
+      <c r="E46" s="3">
         <v>28829000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16055000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13690000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10557000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9255000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8536000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>6053000</v>
       </c>
       <c r="K46" s="3">
         <v>6053000</v>
       </c>
       <c r="L46" s="3">
+        <v>6053000</v>
+      </c>
+      <c r="M46" s="3">
         <v>5624700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4775300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3905400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>299000</v>
+      </c>
+      <c r="E47" s="3">
         <v>266000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -2081,99 +2186,108 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>10000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4845000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3607000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2856000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2292000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1404000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>997000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>521000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>466000</v>
       </c>
       <c r="K48" s="3">
         <v>466000</v>
       </c>
       <c r="L48" s="3">
+        <v>466000</v>
+      </c>
+      <c r="M48" s="3">
         <v>582700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1152300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>560100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6048000</v>
+      </c>
+      <c r="E49" s="3">
         <v>6688000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6930000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>667000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>663000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>670000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>722000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>784000</v>
       </c>
       <c r="K49" s="3">
         <v>784000</v>
       </c>
       <c r="L49" s="3">
+        <v>784000</v>
+      </c>
+      <c r="M49" s="3">
         <v>939200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>953400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>967200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6917000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4797000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2950000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>666000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>668000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>319000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>67000</v>
       </c>
       <c r="K52" s="3">
         <v>67000</v>
       </c>
       <c r="L52" s="3">
+        <v>67000</v>
+      </c>
+      <c r="M52" s="3">
         <v>104300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>204900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>110000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41182000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44187000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28791000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17315000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13292000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11241000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9841000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>7370000</v>
       </c>
       <c r="K54" s="3">
         <v>7370000</v>
       </c>
       <c r="L54" s="3">
+        <v>7370000</v>
+      </c>
+      <c r="M54" s="3">
         <v>7250900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6412200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5552900</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,76 +2531,80 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1193000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1783000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1201000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>687000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>511000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>596000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>485000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>296000</v>
       </c>
       <c r="K57" s="3">
         <v>296000</v>
       </c>
       <c r="L57" s="3">
+        <v>296000</v>
+      </c>
+      <c r="M57" s="3">
         <v>324400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>356400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>335100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>999000</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>796000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1413000</v>
       </c>
       <c r="K58" s="3">
         <v>1413000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
+      <c r="L58" s="3">
+        <v>1413000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
@@ -2478,165 +2612,180 @@
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4120000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2552000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1725000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1097000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>818000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>542000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>507000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>642000</v>
       </c>
       <c r="K59" s="3">
         <v>642000</v>
       </c>
       <c r="L59" s="3">
+        <v>642000</v>
+      </c>
+      <c r="M59" s="3">
         <v>630400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>619800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>594900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6563000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4335000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3925000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1784000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1329000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1153000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1788000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2351000</v>
       </c>
       <c r="K60" s="3">
         <v>2351000</v>
       </c>
       <c r="L60" s="3">
+        <v>2351000</v>
+      </c>
+      <c r="M60" s="3">
         <v>945500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>976200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>930000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9703000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10946000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5964000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1991000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1988000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1985000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2020000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>97000</v>
       </c>
       <c r="K61" s="3">
         <v>97000</v>
       </c>
       <c r="L61" s="3">
+        <v>97000</v>
+      </c>
+      <c r="M61" s="3">
         <v>1373900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>21400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2815000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2294000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2009000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1336000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>633000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>632000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>271000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>453000</v>
       </c>
       <c r="K62" s="3">
         <v>453000</v>
       </c>
       <c r="L62" s="3">
+        <v>453000</v>
+      </c>
+      <c r="M62" s="3">
         <v>475100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>589300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>455800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19081000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17575000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11898000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5111000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3950000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3770000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4079000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2901000</v>
       </c>
       <c r="K66" s="3">
         <v>2901000</v>
       </c>
       <c r="L66" s="3">
+        <v>2901000</v>
+      </c>
+      <c r="M66" s="3">
         <v>2794500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1584500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1407200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10171000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16235000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18908000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14971000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12565000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8787000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6108000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>4350000</v>
       </c>
       <c r="K72" s="3">
         <v>4350000</v>
       </c>
       <c r="L72" s="3">
+        <v>4350000</v>
+      </c>
+      <c r="M72" s="3">
         <v>3504700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3246100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2730400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22101000</v>
+      </c>
+      <c r="E76" s="3">
         <v>26612000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16893000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12204000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9342000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7471000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5762000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4469000</v>
       </c>
       <c r="K76" s="3">
         <v>4469000</v>
       </c>
       <c r="L76" s="3">
+        <v>4469000</v>
+      </c>
+      <c r="M76" s="3">
         <v>4456400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4827700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4145700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E80" s="2">
         <v>44591</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43856</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43492</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43128</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42764</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42029</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41665</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41301</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40937</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4368000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9752000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4332000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2796000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4141000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3047000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1666000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>614000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>630600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>440000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>562500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>581100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1174000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1098000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>381000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>262000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>199000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>187000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>197000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>239100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>226200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>204200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5641000</v>
+      </c>
+      <c r="E89" s="3">
         <v>9108000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5822000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4761000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3743000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3502000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1672000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1175000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>905700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>835100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>824200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>909200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1833000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-976000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1128000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-489000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-593000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-176000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-86000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-122400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-255200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-183300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-138700</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7375000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9830000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19675000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6145000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4097000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1278000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-793000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-805900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-744000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1143400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,47 +3994,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-398000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-399000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-395000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-390000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-371000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-341000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-261000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-213000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-186500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-181300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-46900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,48 +4159,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11617000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1865000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3804000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-792000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2866000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2544000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>291000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-676000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>389600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>236700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3982,58 +4231,64 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1143000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10049000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10114000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3220000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2236000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1170000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>99000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-654900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>418800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>64900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>NVDA</t>
   </si>
@@ -772,13 +772,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11618000</v>
+        <v>10867000</v>
       </c>
       <c r="E9" s="3">
-        <v>9439000</v>
+        <v>8793000</v>
       </c>
       <c r="F9" s="3">
-        <v>6279000</v>
+        <v>6157000</v>
       </c>
       <c r="G9" s="3">
         <v>4150000</v>
@@ -814,13 +814,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15356000</v>
+        <v>16107000</v>
       </c>
       <c r="E10" s="3">
-        <v>17475000</v>
+        <v>18121000</v>
       </c>
       <c r="F10" s="3">
-        <v>10396000</v>
+        <v>10518000</v>
       </c>
       <c r="G10" s="3">
         <v>6768000</v>
@@ -958,13 +958,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1353000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>2104000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>646000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>150000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NVDA_YR_FIN.xlsx
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10867000</v>
+        <v>10921000</v>
       </c>
       <c r="E9" s="3">
         <v>8793000</v>
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16107000</v>
+        <v>16053000</v>
       </c>
       <c r="E10" s="3">
         <v>18121000</v>
@@ -958,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2104000</v>
+        <v>2050000</v>
       </c>
       <c r="E14" s="3">
         <v>646000</v>
